--- a/Data/Optimised_Networks/manual_search_offline 2_20-12_50_0.0007_40.xlsx
+++ b/Data/Optimised_Networks/manual_search_offline 2_20-12_50_0.0007_40.xlsx
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3011687406394682</v>
+        <v>0.3018177921912433</v>
       </c>
       <c r="C2" t="n">
-        <v>687.4562173640672</v>
+        <v>669.593302179723</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4199680169783884</v>
+        <v>0.4124175911102308</v>
       </c>
       <c r="E2" t="n">
         <v>300</v>
@@ -408,13 +408,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5249250811805258</v>
+        <v>0.5262770073157528</v>
       </c>
       <c r="C3" t="n">
-        <v>606.7585931253325</v>
+        <v>557.3195326204359</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8354900317956608</v>
+        <v>0.8168312681014041</v>
       </c>
       <c r="E3" t="n">
         <v>300</v>
@@ -428,13 +428,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7461805481072806</v>
+        <v>0.7467218955132937</v>
       </c>
       <c r="C4" t="n">
-        <v>528.9566835164444</v>
+        <v>427.6804400475792</v>
       </c>
       <c r="D4" t="n">
-        <v>1.234258256097096</v>
+        <v>1.202446193299807</v>
       </c>
       <c r="E4" t="n">
         <v>300</v>
@@ -448,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9600934499475557</v>
+        <v>0.9614548822369386</v>
       </c>
       <c r="C5" t="n">
-        <v>515.2769758810566</v>
+        <v>353.1408944409468</v>
       </c>
       <c r="D5" t="n">
-        <v>1.597880226100251</v>
+        <v>1.556186597563925</v>
       </c>
       <c r="E5" t="n">
         <v>300</v>
@@ -468,13 +468,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.160101055389301</v>
+        <v>1.16703599813444</v>
       </c>
       <c r="C6" t="n">
-        <v>764.1794463313558</v>
+        <v>588.2611346715587</v>
       </c>
       <c r="D6" t="n">
-        <v>1.900783800430499</v>
+        <v>1.871750690561808</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
@@ -488,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.345230251764118</v>
+        <v>1.357042064560052</v>
       </c>
       <c r="C7" t="n">
-        <v>1432.758163296527</v>
+        <v>1345.818916440716</v>
       </c>
       <c r="D7" t="n">
-        <v>2.144823898923102</v>
+        <v>2.151904059056688</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
@@ -508,13 +508,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.506407076116178</v>
+        <v>1.519107956335721</v>
       </c>
       <c r="C8" t="n">
-        <v>3056.525158908675</v>
+        <v>2987.40653071057</v>
       </c>
       <c r="D8" t="n">
-        <v>2.364506874585972</v>
+        <v>2.377696333663054</v>
       </c>
       <c r="E8" t="n">
         <v>300</v>
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.651889898224182</v>
+        <v>1.68712892126797</v>
       </c>
       <c r="C9" t="n">
-        <v>5017.648297294267</v>
+        <v>4909.637082995691</v>
       </c>
       <c r="D9" t="n">
-        <v>2.58242684993595</v>
+        <v>2.583823567698655</v>
       </c>
       <c r="E9" t="n">
         <v>300</v>
@@ -548,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.783955509771272</v>
+        <v>1.844852126901836</v>
       </c>
       <c r="C10" t="n">
-        <v>6705.323961795035</v>
+        <v>6669.634181228081</v>
       </c>
       <c r="D10" t="n">
-        <v>2.761418504404974</v>
+        <v>2.774100607413895</v>
       </c>
       <c r="E10" t="n">
         <v>300</v>
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.904006252423065</v>
+        <v>1.979401332546764</v>
       </c>
       <c r="C11" t="n">
-        <v>8117.094090003782</v>
+        <v>8148.77137504587</v>
       </c>
       <c r="D11" t="n">
-        <v>2.909010741543881</v>
+        <v>2.940756097562281</v>
       </c>
       <c r="E11" t="n">
         <v>300</v>
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.021526993132801</v>
+        <v>2.100877010920998</v>
       </c>
       <c r="C12" t="n">
-        <v>9442.963644347981</v>
+        <v>9451.205029577972</v>
       </c>
       <c r="D12" t="n">
-        <v>3.048692286589459</v>
+        <v>3.086618610247781</v>
       </c>
       <c r="E12" t="n">
         <v>300</v>
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.138859972777357</v>
+        <v>2.214214627544889</v>
       </c>
       <c r="C13" t="n">
-        <v>10744.51751205203</v>
+        <v>10651.81163209645</v>
       </c>
       <c r="D13" t="n">
-        <v>3.187669673512562</v>
+        <v>3.219473177002099</v>
       </c>
       <c r="E13" t="n">
         <v>300</v>
@@ -628,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2090556988160759</v>
+        <v>0.2135283249856124</v>
       </c>
       <c r="C14" t="n">
-        <v>779.1720068751806</v>
+        <v>697.2222719301499</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266235406887408</v>
+        <v>0.2368582810734778</v>
       </c>
       <c r="E14" t="n">
         <v>300</v>
@@ -648,13 +648,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3442985536219401</v>
+        <v>0.3533383641216999</v>
       </c>
       <c r="C15" t="n">
-        <v>777.7975366566463</v>
+        <v>591.2730490689139</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5381494803000679</v>
+        <v>0.4778962333842716</v>
       </c>
       <c r="E15" t="n">
         <v>300</v>
@@ -668,13 +668,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4825538815746772</v>
+        <v>0.4960611295488335</v>
       </c>
       <c r="C16" t="n">
-        <v>780.5717977877905</v>
+        <v>477.5622466722089</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8150281692924172</v>
+        <v>0.724075817682888</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
@@ -688,13 +688,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6266656490743259</v>
+        <v>0.6449116374519748</v>
       </c>
       <c r="C17" t="n">
-        <v>792.5133422974573</v>
+        <v>374.5177032063302</v>
       </c>
       <c r="D17" t="n">
-        <v>1.100306113183586</v>
+        <v>0.9847905951185982</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
@@ -708,13 +708,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7764092804892546</v>
+        <v>0.8008048503284264</v>
       </c>
       <c r="C18" t="n">
-        <v>818.5060599921362</v>
+        <v>341.952715638979</v>
       </c>
       <c r="D18" t="n">
-        <v>1.390686024734267</v>
+        <v>1.27043668227903</v>
       </c>
       <c r="E18" t="n">
         <v>300</v>
@@ -728,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9354550806421638</v>
+        <v>0.9699958466539581</v>
       </c>
       <c r="C19" t="n">
-        <v>877.3122037026319</v>
+        <v>418.5884904576142</v>
       </c>
       <c r="D19" t="n">
-        <v>1.683718174244442</v>
+        <v>1.589146755043328</v>
       </c>
       <c r="E19" t="n">
         <v>300</v>
@@ -748,13 +748,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.102033607686276</v>
+        <v>1.146515971668853</v>
       </c>
       <c r="C20" t="n">
-        <v>978.2745373238492</v>
+        <v>538.9209166222242</v>
       </c>
       <c r="D20" t="n">
-        <v>1.964321495623977</v>
+        <v>1.913947209440512</v>
       </c>
       <c r="E20" t="n">
         <v>300</v>
@@ -768,13 +768,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.26763228450263</v>
+        <v>1.320256717921721</v>
       </c>
       <c r="C21" t="n">
-        <v>1107.490283150933</v>
+        <v>654.3976824547187</v>
       </c>
       <c r="D21" t="n">
-        <v>2.216851000854652</v>
+        <v>2.210768837397685</v>
       </c>
       <c r="E21" t="n">
         <v>300</v>
@@ -788,13 +788,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.423651061865391</v>
+        <v>1.483707700887747</v>
       </c>
       <c r="C22" t="n">
-        <v>1259.078888803235</v>
+        <v>765.8261890701485</v>
       </c>
       <c r="D22" t="n">
-        <v>2.42025203334747</v>
+        <v>2.447383674392003</v>
       </c>
       <c r="E22" t="n">
         <v>300</v>
@@ -808,13 +808,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.562136173505702</v>
+        <v>1.629122614980066</v>
       </c>
       <c r="C23" t="n">
-        <v>1405.243382157173</v>
+        <v>880.0522747440352</v>
       </c>
       <c r="D23" t="n">
-        <v>2.558537604917974</v>
+        <v>2.603709196515926</v>
       </c>
       <c r="E23" t="n">
         <v>300</v>
@@ -828,13 +828,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.671953976826758</v>
+        <v>1.741504388771624</v>
       </c>
       <c r="C24" t="n">
-        <v>1569.279087872045</v>
+        <v>1037.027464660355</v>
       </c>
       <c r="D24" t="n">
-        <v>2.603923272245665</v>
+        <v>2.654491228272997</v>
       </c>
       <c r="E24" t="n">
         <v>300</v>
@@ -848,13 +848,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.762465865262187</v>
+        <v>1.82719536955664</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.645109143837</v>
+        <v>1260.168823086646</v>
       </c>
       <c r="D25" t="n">
-        <v>2.593550445658476</v>
+        <v>2.641054541654632</v>
       </c>
       <c r="E25" t="n">
         <v>300</v>
